--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,60 +46,60 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>defective</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>however</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>small</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -109,526 +109,499 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautifully</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>decor</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>pie</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>decor</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>always</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>owned</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>va</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>well</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>peel</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>grip</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>easily</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>know</t>
   </si>
   <si>
     <t>come</t>
   </si>
   <si>
-    <t>quickly</t>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>purchased</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>say</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>large</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
-    <t>lot</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>enough</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>vacuum</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>fine</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>knife</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>would</t>
+    <t>get</t>
   </si>
   <si>
     <t>positive</t>
@@ -989,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q179"/>
+  <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +973,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1058,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1076,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1100,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1108,13 +1081,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8148148148148148</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1126,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1150,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1158,13 +1131,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6956521739130435</v>
+        <v>0.65</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1176,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.90625</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1200,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1208,13 +1181,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.625</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1226,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1250,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1258,13 +1231,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4573643410852713</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1276,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8828125</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1300,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1308,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4141414141414141</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1326,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8761609907120743</v>
       </c>
       <c r="L8">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M8">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1350,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1358,13 +1331,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1376,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1400,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1408,13 +1381,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3962264150943396</v>
+        <v>0.36</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1482,13 +1455,13 @@
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8409090909090909</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1500,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1508,13 +1481,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2941176470588235</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1526,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.7662337662337663</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1550,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1558,13 +1531,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2692307692307692</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1576,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7705627705627706</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1600,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1608,13 +1581,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2666666666666667</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1626,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7491525423728813</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L14">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="M14">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1650,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1658,37 +1631,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2450980392156863</v>
+        <v>0.2</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.7445887445887446</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L15">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1700,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1708,37 +1681,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2222222222222222</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>0.7435897435897436</v>
+        <v>0.7525423728813559</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1750,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1758,37 +1731,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2108108108108108</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1800,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1808,37 +1781,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1538461538461539</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F18">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.734375</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1850,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1858,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1442307692307692</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -1876,19 +1849,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.7333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1900,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1908,37 +1881,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1360544217687075</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
+        <v>0.44</v>
       </c>
       <c r="F20">
-        <v>0.95</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.6857142857142857</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1950,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1958,37 +1931,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1237113402061856</v>
+        <v>0.02789400278940028</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E21">
-        <v>0.04</v>
+        <v>0.71</v>
       </c>
       <c r="F21">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>170</v>
+        <v>697</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.6755020080321286</v>
+        <v>0.6886035313001605</v>
       </c>
       <c r="L21">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="M21">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1997,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2008,37 +1981,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.02231520223152022</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="E22">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="F22">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>701</v>
+        <v>1022</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.647887323943662</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2050,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2058,7 +2031,7 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L23">
         <v>33</v>
@@ -2076,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2084,13 +2057,13 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.6461538461538462</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2102,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2110,13 +2083,13 @@
         <v>51</v>
       </c>
       <c r="K25">
-        <v>0.64</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2128,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2136,13 +2109,13 @@
         <v>52</v>
       </c>
       <c r="K26">
-        <v>0.6346153846153846</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L26">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2154,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2162,13 +2135,13 @@
         <v>53</v>
       </c>
       <c r="K27">
-        <v>0.6301369863013698</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2180,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2188,13 +2161,13 @@
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.6285714285714286</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2206,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2214,25 +2187,25 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2240,13 +2213,13 @@
         <v>56</v>
       </c>
       <c r="K30">
-        <v>0.6153846153846154</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2258,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2266,13 +2239,13 @@
         <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6122448979591837</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2265,13 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.6031746031746031</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2310,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2318,13 +2291,13 @@
         <v>59</v>
       </c>
       <c r="K33">
-        <v>0.6029411764705882</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2336,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2344,13 +2317,13 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.6107784431137725</v>
       </c>
       <c r="L34">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M34">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2362,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2370,13 +2343,13 @@
         <v>61</v>
       </c>
       <c r="K35">
-        <v>0.5903614457831325</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2388,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2396,13 +2369,13 @@
         <v>62</v>
       </c>
       <c r="K36">
-        <v>0.5897435897435898</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2414,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2422,13 +2395,13 @@
         <v>63</v>
       </c>
       <c r="K37">
-        <v>0.5802469135802469</v>
+        <v>0.6</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2440,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2448,13 +2421,13 @@
         <v>64</v>
       </c>
       <c r="K38">
-        <v>0.5789473684210527</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2466,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2474,13 +2447,13 @@
         <v>65</v>
       </c>
       <c r="K39">
-        <v>0.562874251497006</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L39">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2492,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2500,13 +2473,13 @@
         <v>66</v>
       </c>
       <c r="K40">
-        <v>0.5625</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2518,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2526,13 +2499,13 @@
         <v>67</v>
       </c>
       <c r="K41">
-        <v>0.5555555555555556</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2544,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2552,13 +2525,13 @@
         <v>68</v>
       </c>
       <c r="K42">
-        <v>0.5555555555555556</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2570,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2578,13 +2551,13 @@
         <v>69</v>
       </c>
       <c r="K43">
-        <v>0.5538461538461539</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2596,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2604,13 +2577,13 @@
         <v>70</v>
       </c>
       <c r="K44">
-        <v>0.5510204081632653</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2622,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2630,13 +2603,13 @@
         <v>71</v>
       </c>
       <c r="K45">
-        <v>0.5409836065573771</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2648,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2656,13 +2629,13 @@
         <v>72</v>
       </c>
       <c r="K46">
-        <v>0.5338345864661654</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L46">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2674,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2682,13 +2655,13 @@
         <v>73</v>
       </c>
       <c r="K47">
-        <v>0.5299145299145299</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2700,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2708,25 +2681,25 @@
         <v>74</v>
       </c>
       <c r="K48">
-        <v>0.5172413793103449</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>15</v>
-      </c>
-      <c r="M48">
-        <v>15</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>14</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2734,13 +2707,13 @@
         <v>75</v>
       </c>
       <c r="K49">
-        <v>0.5161290322580645</v>
+        <v>0.53</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2752,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2760,13 +2733,13 @@
         <v>76</v>
       </c>
       <c r="K50">
-        <v>0.5161290322580645</v>
+        <v>0.525</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2778,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2786,13 +2759,13 @@
         <v>77</v>
       </c>
       <c r="K51">
-        <v>0.5151515151515151</v>
+        <v>0.5</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2804,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2812,25 +2785,25 @@
         <v>78</v>
       </c>
       <c r="K52">
-        <v>0.5142857142857142</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2838,13 +2811,13 @@
         <v>79</v>
       </c>
       <c r="K53">
-        <v>0.5128205128205128</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2856,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2864,13 +2837,13 @@
         <v>80</v>
       </c>
       <c r="K54">
-        <v>0.5121951219512195</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2882,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2890,13 +2863,13 @@
         <v>81</v>
       </c>
       <c r="K55">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2908,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2916,13 +2889,13 @@
         <v>82</v>
       </c>
       <c r="K56">
-        <v>0.5</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2934,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2942,13 +2915,13 @@
         <v>83</v>
       </c>
       <c r="K57">
-        <v>0.5</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2960,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2968,13 +2941,13 @@
         <v>84</v>
       </c>
       <c r="K58">
-        <v>0.4868421052631579</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="L58">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2986,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2994,13 +2967,13 @@
         <v>85</v>
       </c>
       <c r="K59">
-        <v>0.4852941176470588</v>
+        <v>0.4552529182879377</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3012,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3020,13 +2993,13 @@
         <v>86</v>
       </c>
       <c r="K60">
-        <v>0.4833333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3038,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3046,13 +3019,13 @@
         <v>87</v>
       </c>
       <c r="K61">
-        <v>0.4821428571428572</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L61">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3064,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3072,13 +3045,13 @@
         <v>88</v>
       </c>
       <c r="K62">
-        <v>0.4819277108433735</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L62">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M62">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3090,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3098,25 +3071,25 @@
         <v>89</v>
       </c>
       <c r="K63">
-        <v>0.4680851063829787</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L63">
+        <v>17</v>
+      </c>
+      <c r="M63">
+        <v>17</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>22</v>
-      </c>
-      <c r="M63">
-        <v>22</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>25</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3124,13 +3097,13 @@
         <v>90</v>
       </c>
       <c r="K64">
-        <v>0.45</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L64">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M64">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3142,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3150,13 +3123,13 @@
         <v>91</v>
       </c>
       <c r="K65">
-        <v>0.4436274509803921</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L65">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3168,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>227</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3176,13 +3149,13 @@
         <v>92</v>
       </c>
       <c r="K66">
-        <v>0.4396887159533074</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L66">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="M66">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3194,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3202,13 +3175,13 @@
         <v>93</v>
       </c>
       <c r="K67">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3220,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3228,13 +3201,13 @@
         <v>94</v>
       </c>
       <c r="K68">
-        <v>0.4178082191780822</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L68">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="M68">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3246,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>425</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3254,13 +3227,13 @@
         <v>95</v>
       </c>
       <c r="K69">
-        <v>0.4054054054054054</v>
+        <v>0.4150684931506849</v>
       </c>
       <c r="L69">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="M69">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3272,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>66</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3280,13 +3253,13 @@
         <v>96</v>
       </c>
       <c r="K70">
-        <v>0.4047619047619048</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L70">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3298,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3306,13 +3279,13 @@
         <v>97</v>
       </c>
       <c r="K71">
-        <v>0.381294964028777</v>
+        <v>0.390625</v>
       </c>
       <c r="L71">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3324,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3332,13 +3305,13 @@
         <v>98</v>
       </c>
       <c r="K72">
-        <v>0.3809523809523809</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3350,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3358,13 +3331,13 @@
         <v>99</v>
       </c>
       <c r="K73">
-        <v>0.3779904306220095</v>
+        <v>0.3884892086330936</v>
       </c>
       <c r="L73">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="M73">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3376,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3384,13 +3357,13 @@
         <v>100</v>
       </c>
       <c r="K74">
-        <v>0.3695652173913043</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3402,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3410,13 +3383,13 @@
         <v>101</v>
       </c>
       <c r="K75">
-        <v>0.3695652173913043</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3428,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3436,7 +3409,7 @@
         <v>102</v>
       </c>
       <c r="K76">
-        <v>0.3693693693693694</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="L76">
         <v>41</v>
@@ -3454,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3462,13 +3435,13 @@
         <v>103</v>
       </c>
       <c r="K77">
-        <v>0.3684210526315789</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L77">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3480,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3488,13 +3461,13 @@
         <v>104</v>
       </c>
       <c r="K78">
-        <v>0.3663366336633663</v>
+        <v>0.3642384105960265</v>
       </c>
       <c r="L78">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3506,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3517,10 +3490,10 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="L79">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M79">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3532,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3540,13 +3513,13 @@
         <v>106</v>
       </c>
       <c r="K80">
-        <v>0.3611111111111111</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3558,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3566,13 +3539,13 @@
         <v>107</v>
       </c>
       <c r="K81">
-        <v>0.359375</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3584,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3592,13 +3565,13 @@
         <v>108</v>
       </c>
       <c r="K82">
-        <v>0.3529411764705883</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3610,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3618,13 +3591,13 @@
         <v>109</v>
       </c>
       <c r="K83">
-        <v>0.3518518518518519</v>
+        <v>0.34375</v>
       </c>
       <c r="L83">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M83">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3636,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3644,13 +3617,13 @@
         <v>110</v>
       </c>
       <c r="K84">
-        <v>0.3509933774834437</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L84">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M84">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3662,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3670,13 +3643,13 @@
         <v>111</v>
       </c>
       <c r="K85">
-        <v>0.341227125941873</v>
+        <v>0.331896551724138</v>
       </c>
       <c r="L85">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M85">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3685,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3696,25 +3669,25 @@
         <v>112</v>
       </c>
       <c r="K86">
-        <v>0.3221476510067114</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L86">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M86">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3722,13 +3695,13 @@
         <v>113</v>
       </c>
       <c r="K87">
-        <v>0.3194444444444444</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="L87">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M87">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3740,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3748,13 +3721,13 @@
         <v>114</v>
       </c>
       <c r="K88">
-        <v>0.3191489361702128</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3766,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3774,13 +3747,13 @@
         <v>115</v>
       </c>
       <c r="K89">
-        <v>0.3176470588235294</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L89">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3792,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3800,13 +3773,13 @@
         <v>116</v>
       </c>
       <c r="K90">
-        <v>0.3125</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L90">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M90">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3818,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3826,25 +3799,25 @@
         <v>117</v>
       </c>
       <c r="K91">
-        <v>0.3035714285714285</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L91">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="M91">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>78</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3852,25 +3825,25 @@
         <v>118</v>
       </c>
       <c r="K92">
-        <v>0.2991452991452991</v>
+        <v>0.28</v>
       </c>
       <c r="L92">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="M92">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>82</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3878,25 +3851,25 @@
         <v>119</v>
       </c>
       <c r="K93">
-        <v>0.291025641025641</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="L93">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="M93">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="N93">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>553</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3904,13 +3877,13 @@
         <v>120</v>
       </c>
       <c r="K94">
-        <v>0.2868852459016393</v>
+        <v>0.27</v>
       </c>
       <c r="L94">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M94">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3922,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3930,13 +3903,13 @@
         <v>121</v>
       </c>
       <c r="K95">
-        <v>0.2769230769230769</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L95">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3948,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3956,13 +3929,13 @@
         <v>122</v>
       </c>
       <c r="K96">
-        <v>0.2763157894736842</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L96">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M96">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3974,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3982,13 +3955,13 @@
         <v>123</v>
       </c>
       <c r="K97">
-        <v>0.274390243902439</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="L97">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M97">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -4000,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -4008,13 +3981,13 @@
         <v>124</v>
       </c>
       <c r="K98">
-        <v>0.2728476821192053</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L98">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="M98">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -4026,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>549</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -4034,7 +4007,7 @@
         <v>125</v>
       </c>
       <c r="K99">
-        <v>0.2711864406779661</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L99">
         <v>16</v>
@@ -4052,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -4060,13 +4033,13 @@
         <v>126</v>
       </c>
       <c r="K100">
-        <v>0.2666666666666667</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L100">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M100">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -4078,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -4086,25 +4059,25 @@
         <v>127</v>
       </c>
       <c r="K101">
-        <v>0.2601880877742947</v>
+        <v>0.2384823848238482</v>
       </c>
       <c r="L101">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M101">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>236</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -4112,13 +4085,13 @@
         <v>128</v>
       </c>
       <c r="K102">
-        <v>0.26</v>
+        <v>0.2361623616236162</v>
       </c>
       <c r="L102">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M102">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -4130,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>74</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -4138,25 +4111,25 @@
         <v>129</v>
       </c>
       <c r="K103">
-        <v>0.2583025830258303</v>
+        <v>0.2331288343558282</v>
       </c>
       <c r="L103">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="M103">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>201</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -4164,25 +4137,25 @@
         <v>130</v>
       </c>
       <c r="K104">
-        <v>0.2575757575757576</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L104">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M104">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -4190,25 +4163,25 @@
         <v>131</v>
       </c>
       <c r="K105">
-        <v>0.2558139534883721</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L105">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M105">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>64</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -4216,13 +4189,13 @@
         <v>132</v>
       </c>
       <c r="K106">
-        <v>0.2525252525252525</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L106">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M106">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -4234,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -4242,25 +4215,25 @@
         <v>133</v>
       </c>
       <c r="K107">
-        <v>0.25</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L107">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M107">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N107">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -4268,13 +4241,13 @@
         <v>134</v>
       </c>
       <c r="K108">
-        <v>0.2467532467532468</v>
+        <v>0.2227272727272727</v>
       </c>
       <c r="L108">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="M108">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -4286,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>58</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -4294,13 +4267,13 @@
         <v>135</v>
       </c>
       <c r="K109">
-        <v>0.2456140350877193</v>
+        <v>0.2213740458015267</v>
       </c>
       <c r="L109">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M109">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -4312,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>344</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -4320,25 +4293,25 @@
         <v>136</v>
       </c>
       <c r="K110">
-        <v>0.2432432432432433</v>
+        <v>0.2177033492822966</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>56</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -4346,25 +4319,25 @@
         <v>137</v>
       </c>
       <c r="K111">
-        <v>0.2421875</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="L111">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M111">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N111">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -4372,13 +4345,13 @@
         <v>138</v>
       </c>
       <c r="K112">
-        <v>0.2388059701492537</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L112">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M112">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4390,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -4398,25 +4371,25 @@
         <v>139</v>
       </c>
       <c r="K113">
-        <v>0.2365591397849462</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="L113">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M113">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>71</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -4424,25 +4397,25 @@
         <v>140</v>
       </c>
       <c r="K114">
-        <v>0.2297297297297297</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L114">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="M114">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="N114">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>285</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -4450,13 +4423,13 @@
         <v>141</v>
       </c>
       <c r="K115">
-        <v>0.2289156626506024</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="L115">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M115">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4468,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4476,25 +4449,25 @@
         <v>142</v>
       </c>
       <c r="K116">
-        <v>0.2282608695652174</v>
+        <v>0.2103448275862069</v>
       </c>
       <c r="L116">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="M116">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>71</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4502,25 +4475,25 @@
         <v>143</v>
       </c>
       <c r="K117">
-        <v>0.2272727272727273</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="L117">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M117">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4528,13 +4501,13 @@
         <v>144</v>
       </c>
       <c r="K118">
-        <v>0.2201834862385321</v>
+        <v>0.2035398230088496</v>
       </c>
       <c r="L118">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M118">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4546,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4554,13 +4527,13 @@
         <v>145</v>
       </c>
       <c r="K119">
-        <v>0.2153846153846154</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="L119">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M119">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N119">
         <v>0.97</v>
@@ -4572,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4580,25 +4553,25 @@
         <v>146</v>
       </c>
       <c r="K120">
-        <v>0.2153846153846154</v>
+        <v>0.19559902200489</v>
       </c>
       <c r="L120">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="M120">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>102</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4606,13 +4579,13 @@
         <v>147</v>
       </c>
       <c r="K121">
-        <v>0.2142857142857143</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="L121">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M121">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4624,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4632,25 +4605,25 @@
         <v>148</v>
       </c>
       <c r="K122">
-        <v>0.2128712871287129</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L122">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M122">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N122">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O122">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>159</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4658,25 +4631,25 @@
         <v>149</v>
       </c>
       <c r="K123">
-        <v>0.2068181818181818</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L123">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="M123">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
-        <v>349</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4684,13 +4657,13 @@
         <v>150</v>
       </c>
       <c r="K124">
-        <v>0.2058823529411765</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L124">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M124">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4702,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>189</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4710,25 +4683,25 @@
         <v>151</v>
       </c>
       <c r="K125">
-        <v>0.2049689440993789</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="L125">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M125">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N125">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4736,13 +4709,13 @@
         <v>152</v>
       </c>
       <c r="K126">
-        <v>0.2035398230088496</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L126">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M126">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4754,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="10:17">
@@ -4762,25 +4735,25 @@
         <v>153</v>
       </c>
       <c r="K127">
-        <v>0.1973684210526316</v>
+        <v>0.1740890688259109</v>
       </c>
       <c r="L127">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M127">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N127">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O127">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>61</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="10:17">
@@ -4788,25 +4761,25 @@
         <v>154</v>
       </c>
       <c r="K128">
-        <v>0.1970260223048327</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="L128">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M128">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N128">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O128">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>216</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="10:17">
@@ -4814,13 +4787,13 @@
         <v>155</v>
       </c>
       <c r="K129">
-        <v>0.1923076923076923</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="L129">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M129">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -4832,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="10:17">
@@ -4840,25 +4813,25 @@
         <v>156</v>
       </c>
       <c r="K130">
-        <v>0.1886792452830189</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L130">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M130">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N130">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O130">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="10:17">
@@ -4866,25 +4839,25 @@
         <v>157</v>
       </c>
       <c r="K131">
-        <v>0.1885441527446301</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L131">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="M131">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131">
-        <v>340</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="10:17">
@@ -4892,13 +4865,13 @@
         <v>158</v>
       </c>
       <c r="K132">
-        <v>0.1789473684210526</v>
+        <v>0.1638655462184874</v>
       </c>
       <c r="L132">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M132">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -4910,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="10:17">
@@ -4918,13 +4891,13 @@
         <v>159</v>
       </c>
       <c r="K133">
-        <v>0.1777777777777778</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="L133">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M133">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -4936,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>74</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="10:17">
@@ -4944,25 +4917,25 @@
         <v>160</v>
       </c>
       <c r="K134">
-        <v>0.1748251748251748</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L134">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M134">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N134">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="10:17">
@@ -4970,25 +4943,25 @@
         <v>161</v>
       </c>
       <c r="K135">
-        <v>0.1691176470588235</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="L135">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="M135">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="N135">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O135">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>339</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="10:17">
@@ -4996,13 +4969,13 @@
         <v>162</v>
       </c>
       <c r="K136">
-        <v>0.1688311688311688</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L136">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M136">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -5014,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="10:17">
@@ -5022,13 +4995,13 @@
         <v>163</v>
       </c>
       <c r="K137">
-        <v>0.1649484536082474</v>
+        <v>0.1554054054054054</v>
       </c>
       <c r="L137">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M137">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -5040,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>243</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="10:17">
@@ -5048,25 +5021,25 @@
         <v>164</v>
       </c>
       <c r="K138">
-        <v>0.1590909090909091</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="L138">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M138">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N138">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O138">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="10:17">
@@ -5074,25 +5047,25 @@
         <v>165</v>
       </c>
       <c r="K139">
-        <v>0.1575757575757576</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="L139">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M139">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N139">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139">
-        <v>139</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="10:17">
@@ -5100,25 +5073,25 @@
         <v>166</v>
       </c>
       <c r="K140">
-        <v>0.1568627450980392</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="L140">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M140">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="10:17">
@@ -5126,25 +5099,25 @@
         <v>167</v>
       </c>
       <c r="K141">
-        <v>0.1565934065934066</v>
+        <v>0.1347053320860618</v>
       </c>
       <c r="L141">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="M141">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="N141">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O141">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P141" t="b">
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>307</v>
+        <v>925</v>
       </c>
     </row>
     <row r="142" spans="10:17">
@@ -5152,19 +5125,19 @@
         <v>168</v>
       </c>
       <c r="K142">
-        <v>0.1564625850340136</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="L142">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M142">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N142">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O142">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P142" t="b">
         <v>1</v>
@@ -5178,13 +5151,13 @@
         <v>169</v>
       </c>
       <c r="K143">
-        <v>0.1485148514851485</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L143">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M143">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -5196,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>86</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="10:17">
@@ -5204,25 +5177,25 @@
         <v>170</v>
       </c>
       <c r="K144">
-        <v>0.1478260869565217</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L144">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M144">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O144">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="10:17">
@@ -5230,25 +5203,25 @@
         <v>171</v>
       </c>
       <c r="K145">
-        <v>0.1449275362318841</v>
+        <v>0.1195965417867435</v>
       </c>
       <c r="L145">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="M145">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="N145">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O145">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P145" t="b">
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>177</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="10:17">
@@ -5256,25 +5229,25 @@
         <v>172</v>
       </c>
       <c r="K146">
-        <v>0.1411290322580645</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L146">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M146">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q146">
-        <v>213</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="10:17">
@@ -5282,25 +5255,25 @@
         <v>173</v>
       </c>
       <c r="K147">
-        <v>0.1376146788990826</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="L147">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M147">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147">
-        <v>94</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="10:17">
@@ -5308,13 +5281,13 @@
         <v>174</v>
       </c>
       <c r="K148">
-        <v>0.1285714285714286</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="L148">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M148">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -5326,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="10:17">
@@ -5334,25 +5307,25 @@
         <v>175</v>
       </c>
       <c r="K149">
-        <v>0.1282420749279539</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="L149">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="M149">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="N149">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O149">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q149">
-        <v>605</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="10:17">
@@ -5360,779 +5333,571 @@
         <v>176</v>
       </c>
       <c r="K150">
-        <v>0.1231203007518797</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L150">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="M150">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="N150">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O150">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P150" t="b">
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>933</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="K151">
-        <v>0.1194029850746269</v>
+        <v>0.1027216856892011</v>
       </c>
       <c r="L151">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="M151">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="N151">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O151">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="P151" t="b">
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>118</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K152">
-        <v>0.1176470588235294</v>
+        <v>0.1004901960784314</v>
       </c>
       <c r="L152">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M152">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O152">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q152">
-        <v>135</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K153">
-        <v>0.115979381443299</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L153">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M153">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N153">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="O153">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>343</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K154">
-        <v>0.1139705882352941</v>
+        <v>0.09814814814814815</v>
       </c>
       <c r="L154">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M154">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O154">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q154">
-        <v>241</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K155">
-        <v>0.1102941176470588</v>
+        <v>0.09768637532133675</v>
       </c>
       <c r="L155">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M155">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N155">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O155">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P155" t="b">
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>121</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K156">
-        <v>0.1098265895953757</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L156">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M156">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N156">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O156">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P156" t="b">
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K157">
-        <v>0.1092896174863388</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="L157">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M157">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N157">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O157">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>163</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K158">
-        <v>0.1092896174863388</v>
+        <v>0.09205020920502092</v>
       </c>
       <c r="L158">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M158">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N158">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O158">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q158">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K159">
-        <v>0.108843537414966</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="L159">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M159">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O159">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q159">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K160">
-        <v>0.1088082901554404</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="L160">
+        <v>16</v>
+      </c>
+      <c r="M160">
         <v>21</v>
       </c>
-      <c r="M160">
-        <v>26</v>
-      </c>
       <c r="N160">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="O160">
-        <v>0.1899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K161">
-        <v>0.1069182389937107</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L161">
         <v>17</v>
       </c>
       <c r="M161">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N161">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O161">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K162">
-        <v>0.1053604436229205</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="L162">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M162">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N162">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="O162">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>484</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K163">
-        <v>0.1046831955922865</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L163">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M163">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N163">
-        <v>0.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O163">
-        <v>0.05000000000000004</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P163" t="b">
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>325</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K164">
-        <v>0.1041119860017498</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="L164">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="M164">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="N164">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="O164">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="P164" t="b">
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>1024</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="10:17">
       <c r="J165" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K165">
-        <v>0.1025641025641026</v>
+        <v>0.08011049723756906</v>
       </c>
       <c r="L165">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M165">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N165">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="O165">
-        <v>0.16</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P165" t="b">
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>140</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="K166">
-        <v>0.1002444987775061</v>
+        <v>0.06693440428380187</v>
       </c>
       <c r="L166">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M166">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="N166">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="O166">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>368</v>
+        <v>697</v>
       </c>
     </row>
     <row r="167" spans="10:17">
       <c r="J167" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K167">
-        <v>0.09770114942528736</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="L167">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M167">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N167">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="O167">
-        <v>0.06000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="P167" t="b">
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>157</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="10:17">
       <c r="J168" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K168">
-        <v>0.09623430962343096</v>
+        <v>0.06176470588235294</v>
       </c>
       <c r="L168">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M168">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O168">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q168">
-        <v>216</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="10:17">
       <c r="J169" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K169">
-        <v>0.0945945945945946</v>
+        <v>0.0440771349862259</v>
       </c>
       <c r="L169">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M169">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N169">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="O169">
-        <v>0.07999999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="P169" t="b">
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>469</v>
+        <v>694</v>
       </c>
     </row>
     <row r="170" spans="10:17">
       <c r="J170" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K170">
-        <v>0.09375</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="L170">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M170">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N170">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="O170">
-        <v>0.3100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="P170" t="b">
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>174</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="10:17">
       <c r="J171" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K171">
-        <v>0.08928571428571429</v>
+        <v>0.03970223325062035</v>
       </c>
       <c r="L171">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M171">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N171">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="O171">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="P171" t="b">
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="172" spans="10:17">
-      <c r="J172" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K172">
-        <v>0.08426966292134831</v>
-      </c>
-      <c r="L172">
-        <v>15</v>
-      </c>
-      <c r="M172">
-        <v>15</v>
-      </c>
-      <c r="N172">
-        <v>1</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="173" spans="10:17">
-      <c r="J173" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K173">
-        <v>0.08055555555555556</v>
-      </c>
-      <c r="L173">
-        <v>29</v>
-      </c>
-      <c r="M173">
-        <v>40</v>
-      </c>
-      <c r="N173">
-        <v>0.72</v>
-      </c>
-      <c r="O173">
-        <v>0.28</v>
-      </c>
-      <c r="P173" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q173">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="174" spans="10:17">
-      <c r="J174" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K174">
-        <v>0.0797872340425532</v>
-      </c>
-      <c r="L174">
-        <v>15</v>
-      </c>
-      <c r="M174">
-        <v>17</v>
-      </c>
-      <c r="N174">
-        <v>0.88</v>
-      </c>
-      <c r="O174">
-        <v>0.12</v>
-      </c>
-      <c r="P174" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q174">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="10:17">
-      <c r="J175" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K175">
-        <v>0.07167235494880546</v>
-      </c>
-      <c r="L175">
-        <v>21</v>
-      </c>
-      <c r="M175">
-        <v>27</v>
-      </c>
-      <c r="N175">
-        <v>0.78</v>
-      </c>
-      <c r="O175">
-        <v>0.22</v>
-      </c>
-      <c r="P175" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q175">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="176" spans="10:17">
-      <c r="J176" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K176">
-        <v>0.07038123167155426</v>
-      </c>
-      <c r="L176">
-        <v>24</v>
-      </c>
-      <c r="M176">
-        <v>28</v>
-      </c>
-      <c r="N176">
-        <v>0.86</v>
-      </c>
-      <c r="O176">
-        <v>0.14</v>
-      </c>
-      <c r="P176" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q176">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="177" spans="10:17">
-      <c r="J177" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K177">
-        <v>0.06657789613848203</v>
-      </c>
-      <c r="L177">
-        <v>50</v>
-      </c>
-      <c r="M177">
-        <v>66</v>
-      </c>
-      <c r="N177">
-        <v>0.76</v>
-      </c>
-      <c r="O177">
-        <v>0.24</v>
-      </c>
-      <c r="P177" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q177">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="178" spans="10:17">
-      <c r="J178" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K178">
-        <v>0.06571428571428571</v>
-      </c>
-      <c r="L178">
-        <v>23</v>
-      </c>
-      <c r="M178">
-        <v>31</v>
-      </c>
-      <c r="N178">
-        <v>0.74</v>
-      </c>
-      <c r="O178">
-        <v>0.26</v>
-      </c>
-      <c r="P178" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q178">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="179" spans="10:17">
-      <c r="J179" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K179">
-        <v>0.04551724137931035</v>
-      </c>
-      <c r="L179">
-        <v>33</v>
-      </c>
-      <c r="M179">
-        <v>43</v>
-      </c>
-      <c r="N179">
-        <v>0.77</v>
-      </c>
-      <c r="O179">
-        <v>0.23</v>
-      </c>
-      <c r="P179" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q179">
-        <v>692</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
